--- a/medicine/Enfance/La_Traversée_(Tixier)/La_Traversée_(Tixier).xlsx
+++ b/medicine/Enfance/La_Traversée_(Tixier)/La_Traversée_(Tixier).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Travers%C3%A9e_(Tixier)</t>
+          <t>La_Traversée_(Tixier)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Traversée est un roman jeunesse du Français Jean-Christophe Tixier publié en 2015 par les éditions Rageot[1].
-Il parle de migrants qui veulent quitter leur pays pour rejoindre l'Europe[2]. Mais ils sont entrés dans une tempête qui va peut-être les tuer.
+La Traversée est un roman jeunesse du Français Jean-Christophe Tixier publié en 2015 par les éditions Rageot.
+Il parle de migrants qui veulent quitter leur pays pour rejoindre l'Europe. Mais ils sont entrés dans une tempête qui va peut-être les tuer.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Travers%C3%A9e_(Tixier)</t>
+          <t>La_Traversée_(Tixier)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Seyba, dit « Sam », un adolescent africain qui rêve d'une vie meilleure, suit la route des migrations illégales vers l'Europe, qui passe par la Libye et la Méditerranée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seyba, dit « Sam », un adolescent africain qui rêve d'une vie meilleure, suit la route des migrations illégales vers l'Europe, qui passe par la Libye et la Méditerranée.
 </t>
         </is>
       </c>
